--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD38B59-A2A7-B54F-AF87-376F4C2F8D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BEAB6B-52EC-9D41-BFDA-EB9F0D4355D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44820" yWindow="-8240" windowWidth="21600" windowHeight="18300" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44800" yWindow="-8240" windowWidth="21600" windowHeight="18300" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="111">
   <si>
     <t>site</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>original</t>
+  </si>
+  <si>
+    <t>.edu</t>
+  </si>
+  <si>
+    <t>aacrjournals</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>Archive</t>
   </si>
 </sst>
 </file>
@@ -718,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,10 +978,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1426,6 +1438,28 @@
       </c>
       <c r="C54" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D60B2AD-3DEB-BC40-8DC5-7A1FA1DC85BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B765F-5F4D-984B-910B-66D72CD6CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="-4380" windowWidth="21600" windowHeight="16800" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44800" yWindow="2500" windowWidth="21600" windowHeight="12680" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>site</t>
   </si>
@@ -724,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,195 +805,188 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
         <v>108</v>
       </c>
     </row>

--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B765F-5F4D-984B-910B-66D72CD6CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E126264-F917-A649-9F9B-C0FC85EAA0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="2500" windowWidth="21600" windowHeight="12680" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44860" yWindow="15180" windowWidth="21600" windowHeight="12680" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$4</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="257">
   <si>
     <t>site</t>
   </si>
@@ -366,6 +367,450 @@
   </si>
   <si>
     <t>crossref</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>pubpeer</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>Médias</t>
+  </si>
+  <si>
+    <t>retract</t>
+  </si>
+  <si>
+    <t>forbetter</t>
+  </si>
+  <si>
+    <t>scienceintegrit</t>
+  </si>
+  <si>
+    <t>scholarlyoa</t>
+  </si>
+  <si>
+    <t>wordpress</t>
+  </si>
+  <si>
+    <t>libertesphilosophica</t>
+  </si>
+  <si>
+    <t>andrewgelman</t>
+  </si>
+  <si>
+    <t>replication</t>
+  </si>
+  <si>
+    <t>physicsfocus</t>
+  </si>
+  <si>
+    <t>twimg</t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>Réseau social</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>elsevi</t>
+  </si>
+  <si>
+    <t>actahort</t>
+  </si>
+  <si>
+    <t>www.pnas.org</t>
+  </si>
+  <si>
+    <t>pubs.aic.ca</t>
+  </si>
+  <si>
+    <t>academic.oup.com</t>
+  </si>
+  <si>
+    <t>scialert.net</t>
+  </si>
+  <si>
+    <t>nopr.niscair.res.in</t>
+  </si>
+  <si>
+    <t>journals.tubitak.gov.tr</t>
+  </si>
+  <si>
+    <t>journal.romainbrette.fr</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>web.archive.org</t>
+  </si>
+  <si>
+    <t>archive.is</t>
+  </si>
+  <si>
+    <t>archive.md</t>
+  </si>
+  <si>
+    <t>hal.archives-ouvertes.fr</t>
+  </si>
+  <si>
+    <t>www.labtimes-archiv.de</t>
+  </si>
+  <si>
+    <t>archive.org</t>
+  </si>
+  <si>
+    <t>www.laborjournal-archiv.de</t>
+  </si>
+  <si>
+    <t>archive.ph</t>
+  </si>
+  <si>
+    <t>www.patanjaliresearchinstitute.com</t>
+  </si>
+  <si>
+    <t>archive.fo</t>
+  </si>
+  <si>
+    <t>archives.fbi.gov</t>
+  </si>
+  <si>
+    <t>researchintegrityjournal.biomedcentral.com</t>
+  </si>
+  <si>
+    <t>tel.archives-ouvertes.fr</t>
+  </si>
+  <si>
+    <t>archinte.jamanetwork.com</t>
+  </si>
+  <si>
+    <t>archive.vn</t>
+  </si>
+  <si>
+    <t>archiviodpc.dirittopenaleuomo.org</t>
+  </si>
+  <si>
+    <t>dec2013.archive.ensembl.org</t>
+  </si>
+  <si>
+    <t>ega-archive.org</t>
+  </si>
+  <si>
+    <t>may2009.archive.ensembl.org</t>
+  </si>
+  <si>
+    <t>munewsarchives.missouri.edu</t>
+  </si>
+  <si>
+    <t>ogis.archives.gov</t>
+  </si>
+  <si>
+    <t>openarchive.ki.se</t>
+  </si>
+  <si>
+    <t>web-beta.archive.org</t>
+  </si>
+  <si>
+    <t>www.researchinformation.info</t>
+  </si>
+  <si>
+    <t>www.researchintegrityjournal.com</t>
+  </si>
+  <si>
+    <t>tandfonline</t>
+  </si>
+  <si>
+    <t>mcb.asm</t>
+  </si>
+  <si>
+    <t>pubs.acs</t>
+  </si>
+  <si>
+    <t>oncotarget.com</t>
+  </si>
+  <si>
+    <t>spandidospublications.com</t>
+  </si>
+  <si>
+    <t>hindawi.com</t>
+  </si>
+  <si>
+    <t>mdpi.com</t>
+  </si>
+  <si>
+    <t>dovepress.com</t>
+  </si>
+  <si>
+    <t>bmj.com</t>
+  </si>
+  <si>
+    <t>banglajol.info</t>
+  </si>
+  <si>
+    <t>jstage.jst.go.jp</t>
+  </si>
+  <si>
+    <t>scielo.br</t>
+  </si>
+  <si>
+    <t>currentscience.ac.in</t>
+  </si>
+  <si>
+    <t>bloodjournal.hematologylibrary</t>
+  </si>
+  <si>
+    <t>apsjournals.apsnet</t>
+  </si>
+  <si>
+    <t>sciencemag</t>
+  </si>
+  <si>
+    <t>academicjournals</t>
+  </si>
+  <si>
+    <t>jci</t>
+  </si>
+  <si>
+    <t>europeanreview</t>
+  </si>
+  <si>
+    <t>jcs.biologists</t>
+  </si>
+  <si>
+    <t>fasebj</t>
+  </si>
+  <si>
+    <t>plosone</t>
+  </si>
+  <si>
+    <t>mct.aacrjournals</t>
+  </si>
+  <si>
+    <t>carcin.oxfordjournals</t>
+  </si>
+  <si>
+    <t>diabetes.diabetesjournals</t>
+  </si>
+  <si>
+    <t>pubs.rsc</t>
+  </si>
+  <si>
+    <t>science.sciencemag</t>
+  </si>
+  <si>
+    <t>molpharm.aspetjournals</t>
+  </si>
+  <si>
+    <t>jneurosci</t>
+  </si>
+  <si>
+    <t>plantcell</t>
+  </si>
+  <si>
+    <t>journals.asm</t>
+  </si>
+  <si>
+    <t>scripts.iucr</t>
+  </si>
+  <si>
+    <t>hmg.oxfordjournals</t>
+  </si>
+  <si>
+    <t>journal.frontiersin</t>
+  </si>
+  <si>
+    <t>iopscience.iop</t>
+  </si>
+  <si>
+    <t>ishs</t>
+  </si>
+  <si>
+    <t>circres.ahajournals</t>
+  </si>
+  <si>
+    <t>endo.endojournals</t>
+  </si>
+  <si>
+    <t>jvi.asm</t>
+  </si>
+  <si>
+    <t>plantphysiol</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee</t>
+  </si>
+  <si>
+    <t>nejm</t>
+  </si>
+  <si>
+    <t>bloodjournal</t>
+  </si>
+  <si>
+    <t>jcb.rupress</t>
+  </si>
+  <si>
+    <t>emboj.embopress</t>
+  </si>
+  <si>
+    <t>genesdev.cshlp</t>
+  </si>
+  <si>
+    <t>nar.oxfordjournals</t>
+  </si>
+  <si>
+    <t>mcr.aacrjournals</t>
+  </si>
+  <si>
+    <t>elifesciences</t>
+  </si>
+  <si>
+    <t>journals.aps</t>
+  </si>
+  <si>
+    <t>europepmc</t>
+  </si>
+  <si>
+    <t>hortsci.ashspublications</t>
+  </si>
+  <si>
+    <t>jcem.endojournals</t>
+  </si>
+  <si>
+    <t>jxb.oxfordjournals</t>
+  </si>
+  <si>
+    <t>icmje</t>
+  </si>
+  <si>
+    <t>erc.endocrinologyjournals</t>
+  </si>
+  <si>
+    <t>brain.oxfordjournals</t>
+  </si>
+  <si>
+    <t>advances.sciencemag</t>
+  </si>
+  <si>
+    <t>scirp</t>
+  </si>
+  <si>
+    <t>vixra</t>
+  </si>
+  <si>
+    <t>royalsocietypublishing</t>
+  </si>
+  <si>
+    <t>biochemj</t>
+  </si>
+  <si>
+    <t>aip.scitation</t>
+  </si>
+  <si>
+    <t>jme.endocrinologyjournals</t>
+  </si>
+  <si>
+    <t>content.iospress</t>
+  </si>
+  <si>
+    <t>cellphysiolbiochem</t>
+  </si>
+  <si>
+    <t>biomedcentral</t>
+  </si>
+  <si>
+    <t>scribd</t>
+  </si>
+  <si>
+    <t>thelancet</t>
+  </si>
+  <si>
+    <t>ieeeemf</t>
+  </si>
+  <si>
+    <t>portlandpress</t>
+  </si>
+  <si>
+    <t>psyarxiv</t>
+  </si>
+  <si>
+    <t>peerj</t>
+  </si>
+  <si>
+    <t>ipcbee</t>
+  </si>
+  <si>
+    <t>liebertpub</t>
+  </si>
+  <si>
+    <t>journalcra</t>
+  </si>
+  <si>
+    <t>download.springer</t>
+  </si>
+  <si>
+    <t>journals.elsevier</t>
+  </si>
+  <si>
+    <t>witpress</t>
+  </si>
+  <si>
+    <t>journals.lww</t>
+  </si>
+  <si>
+    <t>f1000research</t>
+  </si>
+  <si>
+    <t>ijataatsea</t>
+  </si>
+  <si>
+    <t>online.liebertpub</t>
+  </si>
+  <si>
+    <t>jom.sagepub</t>
+  </si>
+  <si>
+    <t>degruyter</t>
+  </si>
+  <si>
+    <t>impactjournals</t>
+  </si>
+  <si>
+    <t>Editeur - revue</t>
+  </si>
+  <si>
+    <t>ars.elscdn.com</t>
+  </si>
+  <si>
+    <t>imgur.com</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>tinypic</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>yout</t>
+  </si>
+  <si>
+    <t>Universitaires</t>
   </si>
 </sst>
 </file>
@@ -726,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1003,7 +1448,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C56"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,4 +2085,1409 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
+  <dimension ref="A1:D167"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>241</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>244</v>
+      </c>
+      <c r="B131" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>247</v>
+      </c>
+      <c r="B138" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E126264-F917-A649-9F9B-C0FC85EAA0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BCBAC-D4DE-B347-9EBA-4E3FA4337C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44860" yWindow="15180" windowWidth="21600" windowHeight="12680" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44860" yWindow="14880" windowWidth="21600" windowHeight="12980" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
   <si>
     <t>site</t>
   </si>
@@ -399,9 +399,6 @@
     <t>scholarlyoa</t>
   </si>
   <si>
-    <t>wordpress</t>
-  </si>
-  <si>
     <t>libertesphilosophica</t>
   </si>
   <si>
@@ -811,6 +808,120 @@
   </si>
   <si>
     <t>Universitaires</t>
+  </si>
+  <si>
+    <t>wordpre</t>
+  </si>
+  <si>
+    <t>groups.google.com</t>
+  </si>
+  <si>
+    <t>scholar.goo</t>
+  </si>
+  <si>
+    <t>scholarlykitchen</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Brevet</t>
+  </si>
+  <si>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>globalsciencebooks</t>
+  </si>
+  <si>
+    <t>Global Science Books</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t>osf.</t>
+  </si>
+  <si>
+    <t>jbc</t>
+  </si>
+  <si>
+    <t>wsj</t>
+  </si>
+  <si>
+    <t>els-cdn</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>web.expasy.org</t>
+  </si>
+  <si>
+    <t>scientist</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>docs.google.com</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>www.gdc-docs.ethz.ch</t>
+  </si>
+  <si>
+    <t>retractiondatabase</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>www.irit.fr</t>
+  </si>
+  <si>
+    <t>ethics</t>
+  </si>
+  <si>
+    <t>spandidos</t>
+  </si>
+  <si>
+    <t>clinicaltrials</t>
+  </si>
+  <si>
+    <t>theguardian</t>
+  </si>
+  <si>
+    <t>theerrorbar</t>
+  </si>
+  <si>
+    <t>nytimes</t>
+  </si>
+  <si>
+    <t>goo.gl</t>
+  </si>
+  <si>
+    <t>dropbox</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>dcscience</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>media.springer</t>
+  </si>
+  <si>
+    <t>static-content</t>
   </si>
 </sst>
 </file>
@@ -2089,16 +2200,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2135,7 +2246,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
@@ -2143,7 +2254,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
@@ -2151,7 +2262,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
         <v>112</v>
@@ -2159,79 +2270,79 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>254</v>
+      <c r="A9" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>255</v>
+      <c r="A10" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>111</v>
+      <c r="A11" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>117</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>118</v>
+      <c r="A17" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -2239,7 +2350,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -2247,15 +2358,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>121</v>
+      <c r="A20" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -2263,15 +2374,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A22" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>114</v>
@@ -2279,1212 +2390,1508 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>128</v>
+      <c r="A30" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>129</v>
+      <c r="A31" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>33</v>
+      <c r="A32" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>38</v>
+      <c r="A33" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>46</v>
+      <c r="A34" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>90</v>
+      <c r="A35" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>137</v>
+      <c r="A36" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B36" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>163</v>
+      <c r="A37" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>130</v>
+      <c r="A38" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>211</v>
+      </c>
+      <c r="B129" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>212</v>
+      </c>
+      <c r="B131" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>213</v>
+      </c>
+      <c r="B132" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>215</v>
+      </c>
+      <c r="B134" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>216</v>
+      </c>
+      <c r="B136" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>237</v>
+      </c>
+      <c r="B138" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>218</v>
+      </c>
+      <c r="B139" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>239</v>
+      </c>
+      <c r="B142" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>243</v>
       </c>
-      <c r="B129" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="B149" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>222</v>
       </c>
-      <c r="B130" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>244</v>
-      </c>
-      <c r="B131" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="B151" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>245</v>
       </c>
-      <c r="B132" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>223</v>
-      </c>
-      <c r="B133" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>224</v>
-      </c>
-      <c r="B134" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>225</v>
-      </c>
-      <c r="B135" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>226</v>
-      </c>
-      <c r="B136" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="B155" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>246</v>
       </c>
-      <c r="B137" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B156" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>247</v>
       </c>
-      <c r="B138" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>248</v>
-      </c>
-      <c r="B139" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="B157" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>31</v>
       </c>
-      <c r="B140" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="B159" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="B160" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+        <v>276</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+        <v>276</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+        <v>276</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+        <v>276</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+        <v>276</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>256</v>
+      <c r="B195" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>258</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BCBAC-D4DE-B347-9EBA-4E3FA4337C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF2018-C7EB-1049-A7AA-9B65D51144C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44860" yWindow="14880" windowWidth="21600" windowHeight="12980" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
@@ -16,9 +16,11 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$B$1:$C$235</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="319">
   <si>
     <t>site</t>
   </si>
@@ -381,9 +383,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>NIH</t>
-  </si>
-  <si>
     <t>Médias</t>
   </si>
   <si>
@@ -837,9 +836,6 @@
     <t>globalsciencebooks</t>
   </si>
   <si>
-    <t>Global Science Books</t>
-  </si>
-  <si>
     <t>figshare</t>
   </si>
   <si>
@@ -922,6 +918,87 @@
   </si>
   <si>
     <t>static-content</t>
+  </si>
+  <si>
+    <t>nottingham</t>
+  </si>
+  <si>
+    <t>ats.ucla</t>
+  </si>
+  <si>
+    <t>pdos.csail</t>
+  </si>
+  <si>
+    <t>psblab</t>
+  </si>
+  <si>
+    <t>ebi.ac</t>
+  </si>
+  <si>
+    <t>mediterranee</t>
+  </si>
+  <si>
+    <t>ipscell</t>
+  </si>
+  <si>
+    <t>htwberlin</t>
+  </si>
+  <si>
+    <t>emfportal</t>
+  </si>
+  <si>
+    <t>imaging.utk</t>
+  </si>
+  <si>
+    <t>ucsd</t>
+  </si>
+  <si>
+    <t>ethz</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Code - Scripts</t>
+  </si>
+  <si>
+    <t>ieee</t>
+  </si>
+  <si>
+    <t>semanticscholar</t>
+  </si>
+  <si>
+    <t>bit.ly</t>
+  </si>
+  <si>
+    <t>jbuon.com</t>
+  </si>
+  <si>
+    <t>people.f4.htw-berlin</t>
+  </si>
+  <si>
+    <t>laborjournal</t>
+  </si>
+  <si>
+    <t>journalagent</t>
+  </si>
+  <si>
+    <t>researchsquare</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>29a</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>ordre</t>
+  </si>
+  <si>
+    <t>Gouv</t>
   </si>
 </sst>
 </file>
@@ -2200,1701 +2277,2666 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>112</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>249</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>250</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>252</v>
       </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>254</v>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>111</v>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>115</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>295</v>
+      </c>
+      <c r="C49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B118" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>230</v>
+      </c>
+      <c r="C122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>199</v>
+      </c>
+      <c r="C125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>201</v>
+      </c>
+      <c r="C128" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>208</v>
+      </c>
+      <c r="C136" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>233</v>
+      </c>
+      <c r="C137" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>234</v>
+      </c>
+      <c r="C139" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>134</v>
+      </c>
+      <c r="C141" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>211</v>
+      </c>
+      <c r="C144" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>212</v>
+      </c>
+      <c r="C145" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>215</v>
+      </c>
+      <c r="C149" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>237</v>
+      </c>
+      <c r="C153" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>238</v>
+      </c>
+      <c r="C155" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>239</v>
+      </c>
+      <c r="C157" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>240</v>
+      </c>
+      <c r="C158" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>241</v>
+      </c>
+      <c r="C160" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>221</v>
+      </c>
+      <c r="C164" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>222</v>
+      </c>
+      <c r="C165" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>224</v>
+      </c>
+      <c r="C167" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>245</v>
+      </c>
+      <c r="C169" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C172" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C173" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C209" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>257</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C215" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>282</v>
-      </c>
-      <c r="B45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>166</v>
-      </c>
-      <c r="B64" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B78" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>184</v>
-      </c>
-      <c r="B80" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>185</v>
-      </c>
-      <c r="B81" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>186</v>
-      </c>
-      <c r="B82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>132</v>
-      </c>
-      <c r="B83" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="C219" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
         <v>226</v>
       </c>
-      <c r="B86" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B227" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
         <v>227</v>
       </c>
-      <c r="B87" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>187</v>
-      </c>
-      <c r="B89" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>188</v>
-      </c>
-      <c r="B90" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>189</v>
-      </c>
-      <c r="B92" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B228" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
         <v>228</v>
       </c>
-      <c r="B96" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>132</v>
-      </c>
-      <c r="B98" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>172</v>
-      </c>
-      <c r="B101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>195</v>
-      </c>
-      <c r="B102" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B229" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
         <v>229</v>
       </c>
-      <c r="B104" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>196</v>
-      </c>
-      <c r="B105" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B230" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
         <v>230</v>
       </c>
-      <c r="B106" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>197</v>
-      </c>
-      <c r="B107" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>198</v>
-      </c>
-      <c r="B108" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="B231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
         <v>231</v>
       </c>
-      <c r="B109" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>173</v>
-      </c>
-      <c r="B110" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>199</v>
-      </c>
-      <c r="B111" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
         <v>232</v>
       </c>
-      <c r="B113" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>201</v>
-      </c>
-      <c r="B114" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>202</v>
-      </c>
-      <c r="B115" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>203</v>
-      </c>
-      <c r="B116" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="B233" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
         <v>233</v>
       </c>
-      <c r="B117" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>204</v>
-      </c>
-      <c r="B118" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>206</v>
-      </c>
-      <c r="B120" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>207</v>
-      </c>
-      <c r="B121" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>208</v>
-      </c>
-      <c r="B122" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="B234" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
         <v>234</v>
       </c>
-      <c r="B124" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>134</v>
-      </c>
-      <c r="B125" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>235</v>
-      </c>
-      <c r="B126" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>210</v>
-      </c>
-      <c r="B127" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B128" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>211</v>
-      </c>
-      <c r="B129" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>54</v>
-      </c>
-      <c r="B130" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>212</v>
-      </c>
-      <c r="B131" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>213</v>
-      </c>
-      <c r="B132" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>214</v>
-      </c>
-      <c r="B133" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>215</v>
-      </c>
-      <c r="B134" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>236</v>
-      </c>
-      <c r="B135" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>216</v>
-      </c>
-      <c r="B136" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>217</v>
-      </c>
-      <c r="B137" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>237</v>
-      </c>
-      <c r="B138" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>218</v>
-      </c>
-      <c r="B139" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>238</v>
-      </c>
-      <c r="B140" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>219</v>
-      </c>
-      <c r="B141" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>239</v>
-      </c>
-      <c r="B142" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>220</v>
-      </c>
-      <c r="B143" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>240</v>
-      </c>
-      <c r="B144" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>241</v>
-      </c>
-      <c r="B145" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>174</v>
-      </c>
-      <c r="B146" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>242</v>
-      </c>
-      <c r="B147" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>221</v>
-      </c>
-      <c r="B148" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>243</v>
-      </c>
-      <c r="B149" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>244</v>
-      </c>
-      <c r="B150" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>222</v>
-      </c>
-      <c r="B151" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>223</v>
-      </c>
-      <c r="B152" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>224</v>
-      </c>
-      <c r="B153" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>225</v>
-      </c>
-      <c r="B154" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>245</v>
-      </c>
-      <c r="B155" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>246</v>
-      </c>
-      <c r="B156" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>247</v>
-      </c>
-      <c r="B157" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>31</v>
-      </c>
-      <c r="B158" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B159" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B160" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>258</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>43</v>
+      <c r="B235" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC880BD7-B55A-324E-94EE-F7E57FE5ED97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF2018-C7EB-1049-A7AA-9B65D51144C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77459B-968E-A546-9714-F6E5A42411E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44860" yWindow="14880" windowWidth="21600" windowHeight="12980" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44920" yWindow="-5600" windowWidth="21600" windowHeight="9700" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2279,13 +2279,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
   <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pubpeer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77459B-968E-A546-9714-F6E5A42411E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A8698-001B-42E5-A84D-7F55FC4D7326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44920" yWindow="-5600" windowWidth="21600" windowHeight="9700" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$B$1:$C$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$A$1:$C$235</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1005,7 +1004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1018,6 +1017,20 @@
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Grande"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1037,14 +1050,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1363,22 +1380,22 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -1386,7 +1403,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -1394,231 +1411,231 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -1639,13 +1656,13 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -1656,7 +1673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -1667,7 +1684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -1678,7 +1695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1744,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1766,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1788,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1799,7 +1816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +1838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1832,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1854,7 +1871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +1893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1909,7 +1926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1920,7 +1937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1931,7 +1948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1942,7 +1959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1953,7 +1970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1964,7 +1981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1975,7 +1992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1986,7 +2003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1997,7 +2014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2008,7 +2025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2019,7 +2036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2030,7 +2047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2041,7 +2058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2063,7 +2080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2085,7 +2102,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2096,7 +2113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2107,7 +2124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -2118,7 +2135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2129,7 +2146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -2140,7 +2157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -2151,7 +2168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -2162,7 +2179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2173,7 +2190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2184,7 +2201,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -2195,7 +2212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -2206,7 +2223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2217,7 +2234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2228,7 +2245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -2239,7 +2256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
@@ -2250,7 +2267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
@@ -2261,13 +2278,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="B59" s="1"/>
     </row>
   </sheetData>
@@ -2277,19 +2294,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -2300,7 +2318,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2311,7 +2329,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2333,7 +2351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2344,7 +2362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2355,7 +2373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2366,7 +2384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2388,7 +2406,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2399,7 +2417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2410,7 +2428,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2432,7 +2450,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2454,7 +2472,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2465,7 +2483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2476,7 +2494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2487,7 +2505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2498,7 +2516,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2531,7 +2549,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2553,7 +2571,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2564,7 +2582,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2597,7 +2615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2608,7 +2626,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2619,7 +2637,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2630,7 +2648,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2641,7 +2659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2652,7 +2670,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2674,7 +2692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2685,7 +2703,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2718,7 +2736,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2740,7 +2758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" hidden="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2751,7 +2769,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2773,7 +2791,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2784,7 +2802,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2795,7 +2813,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2806,7 +2824,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2817,7 +2835,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" hidden="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" hidden="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2839,7 +2857,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2850,7 +2868,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" hidden="1">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2861,7 +2879,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" hidden="1">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2872,7 +2890,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2883,7 +2901,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" hidden="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2894,7 +2912,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2905,7 +2923,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" hidden="1">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2916,7 +2934,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" hidden="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2927,7 +2945,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" hidden="1">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" hidden="1">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2960,7 +2978,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2971,7 +2989,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2982,7 +3000,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" hidden="1">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2993,7 +3011,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" hidden="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3004,7 +3022,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3037,7 +3055,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3048,7 +3066,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3059,7 +3077,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3070,7 +3088,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3081,7 +3099,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3092,7 +3110,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3103,7 +3121,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3125,7 +3143,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3136,7 +3154,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3147,7 +3165,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3158,7 +3176,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3180,7 +3198,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3191,7 +3209,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3213,7 +3231,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3246,7 +3264,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3257,7 +3275,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3268,7 +3286,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3290,7 +3308,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3301,7 +3319,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3312,7 +3330,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3323,7 +3341,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3334,7 +3352,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3345,7 +3363,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3356,7 +3374,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3367,7 +3385,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3378,7 +3396,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3389,7 +3407,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3400,7 +3418,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3411,7 +3429,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3422,7 +3440,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3433,7 +3451,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3444,7 +3462,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3466,7 +3484,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3477,7 +3495,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3488,7 +3506,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3499,7 +3517,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3510,7 +3528,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3532,7 +3550,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3543,7 +3561,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3554,7 +3572,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3565,7 +3583,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3576,7 +3594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3598,7 +3616,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3609,7 +3627,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3631,7 +3649,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3653,7 +3671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3664,7 +3682,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3675,7 +3693,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3686,7 +3704,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3730,7 +3748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3741,7 +3759,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3752,7 +3770,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3763,7 +3781,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3774,7 +3792,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3785,7 +3803,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3796,7 +3814,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3829,7 +3847,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3840,7 +3858,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3862,7 +3880,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3873,7 +3891,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3895,7 +3913,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3906,7 +3924,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3917,7 +3935,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3928,7 +3946,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3939,7 +3957,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3950,7 +3968,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3961,7 +3979,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3972,7 +3990,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3983,7 +4001,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4005,7 +4023,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4016,7 +4034,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4027,7 +4045,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4038,7 +4056,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4049,7 +4067,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4060,7 +4078,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4071,7 +4089,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4093,7 +4111,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4104,7 +4122,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4115,7 +4133,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4126,7 +4144,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4137,7 +4155,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4148,7 +4166,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4159,7 +4177,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4170,7 +4188,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4181,7 +4199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4192,7 +4210,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4203,7 +4221,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4225,18 +4243,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4247,7 +4265,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4258,29 +4276,29 @@
         <v>274</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4293,7 +4311,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4306,7 +4324,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4319,7 +4337,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4332,7 +4350,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4345,7 +4363,7 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4358,7 +4376,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4371,7 +4389,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4384,7 +4402,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4397,7 +4415,7 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4410,7 +4428,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4423,7 +4441,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4436,7 +4454,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4449,7 +4467,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4462,7 +4480,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4475,7 +4493,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4488,7 +4506,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4501,7 +4519,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4514,7 +4532,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4527,7 +4545,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4540,7 +4558,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4553,7 +4571,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4566,7 +4584,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4579,7 +4597,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4592,7 +4610,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4605,7 +4623,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4616,7 +4634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4627,7 +4645,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4638,7 +4656,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4649,7 +4667,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4660,7 +4678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4671,7 +4689,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4682,7 +4700,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4693,7 +4711,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4704,7 +4722,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4715,7 +4733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4726,7 +4744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4737,7 +4755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4748,7 +4766,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4759,7 +4777,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4770,7 +4788,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4781,7 +4799,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4792,7 +4810,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4803,7 +4821,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4814,7 +4832,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4825,7 +4843,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4836,7 +4854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4847,7 +4865,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4869,7 +4887,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4880,7 +4898,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4891,18 +4909,18 @@
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4925,7 +4943,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C235" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Base de données"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B177" r:id="rId1" xr:uid="{B30C22A8-D855-4BDB-A818-80236F4BEB4A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4935,7 +4964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77459B-968E-A546-9714-F6E5A42411E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE70602-D2D9-7445-BD01-CDB50AF3A3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44920" yWindow="-5600" windowWidth="21600" windowHeight="9700" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="45380" yWindow="3100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$B$1:$C$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$B$1:$C$237</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="321">
   <si>
     <t>site</t>
   </si>
@@ -999,13 +999,19 @@
   </si>
   <si>
     <t>Gouv</t>
+  </si>
+  <si>
+    <t>stata</t>
+  </si>
+  <si>
+    <t>gitlab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1018,6 +1024,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1040,9 +1053,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2277,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2775,10 +2789,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>292</v>
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>318</v>
@@ -2786,10 +2800,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C46" t="s">
         <v>318</v>
@@ -2797,10 +2811,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
         <v>318</v>
@@ -2808,10 +2822,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
         <v>318</v>
@@ -2819,10 +2833,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C49" t="s">
         <v>318</v>
@@ -2830,10 +2844,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
         <v>318</v>
@@ -2841,10 +2855,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
         <v>318</v>
@@ -2852,10 +2866,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s">
         <v>318</v>
@@ -2863,10 +2877,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
         <v>318</v>
@@ -2874,10 +2888,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
         <v>318</v>
@@ -2885,10 +2899,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C55" t="s">
         <v>318</v>
@@ -2896,10 +2910,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
         <v>318</v>
@@ -2907,10 +2921,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
         <v>318</v>
@@ -2918,21 +2932,21 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="C59" t="s">
         <v>247</v>
@@ -2940,10 +2954,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
         <v>247</v>
@@ -2951,10 +2965,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
         <v>247</v>
@@ -2962,10 +2976,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
         <v>247</v>
@@ -2973,10 +2987,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
         <v>247</v>
@@ -2984,10 +2998,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
         <v>247</v>
@@ -2995,10 +3009,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
         <v>247</v>
@@ -3006,10 +3020,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
         <v>247</v>
@@ -3017,10 +3031,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
         <v>247</v>
@@ -3028,10 +3042,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
         <v>247</v>
@@ -3039,10 +3053,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
         <v>247</v>
@@ -3050,10 +3064,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
         <v>247</v>
@@ -3061,10 +3075,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
         <v>247</v>
@@ -3072,10 +3086,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
         <v>247</v>
@@ -3083,10 +3097,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
         <v>247</v>
@@ -3094,10 +3108,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
         <v>247</v>
@@ -3105,10 +3119,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
         <v>247</v>
@@ -3116,10 +3130,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
         <v>247</v>
@@ -3127,10 +3141,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
         <v>247</v>
@@ -3138,10 +3152,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
         <v>247</v>
@@ -3149,10 +3163,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>247</v>
@@ -3160,10 +3174,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
         <v>247</v>
@@ -3171,10 +3185,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
         <v>247</v>
@@ -3182,10 +3196,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
         <v>247</v>
@@ -3193,10 +3207,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
         <v>247</v>
@@ -3204,10 +3218,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
         <v>247</v>
@@ -3215,10 +3229,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
         <v>247</v>
@@ -3226,10 +3240,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
         <v>247</v>
@@ -3237,10 +3251,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
         <v>247</v>
@@ -3248,10 +3262,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
         <v>247</v>
@@ -3259,10 +3273,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
         <v>247</v>
@@ -3270,10 +3284,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
         <v>247</v>
@@ -3281,10 +3295,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
         <v>247</v>
@@ -3292,10 +3306,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
         <v>247</v>
@@ -3303,10 +3317,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
         <v>247</v>
@@ -3314,10 +3328,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
         <v>247</v>
@@ -3325,10 +3339,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
         <v>247</v>
@@ -3336,10 +3350,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
         <v>247</v>
@@ -3347,10 +3361,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="C97" t="s">
         <v>247</v>
@@ -3358,10 +3372,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>247</v>
@@ -3369,10 +3383,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
         <v>247</v>
@@ -3380,10 +3394,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
         <v>247</v>
@@ -3391,10 +3405,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="C101" t="s">
         <v>247</v>
@@ -3402,10 +3416,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="C102" t="s">
         <v>247</v>
@@ -3413,10 +3427,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
         <v>247</v>
@@ -3424,10 +3438,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="C104" t="s">
         <v>247</v>
@@ -3435,10 +3449,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
         <v>247</v>
@@ -3446,10 +3460,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
         <v>247</v>
@@ -3457,10 +3471,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
         <v>247</v>
@@ -3468,10 +3482,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
         <v>247</v>
@@ -3479,10 +3493,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
         <v>247</v>
@@ -3490,10 +3504,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C110" t="s">
         <v>247</v>
@@ -3501,10 +3515,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C111" t="s">
         <v>247</v>
@@ -3512,10 +3526,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
         <v>247</v>
@@ -3523,10 +3537,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C113" t="s">
         <v>247</v>
@@ -3534,10 +3548,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
         <v>247</v>
@@ -3545,10 +3559,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C115" t="s">
         <v>247</v>
@@ -3556,10 +3570,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="C116" t="s">
         <v>247</v>
@@ -3567,10 +3581,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
         <v>247</v>
@@ -3578,10 +3592,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="C118" t="s">
         <v>247</v>
@@ -3589,10 +3603,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C119" t="s">
         <v>247</v>
@@ -3600,10 +3614,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C120" t="s">
         <v>247</v>
@@ -3611,10 +3625,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
         <v>247</v>
@@ -3622,10 +3636,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
         <v>247</v>
@@ -3633,10 +3647,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
         <v>247</v>
@@ -3644,10 +3658,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
         <v>247</v>
@@ -3655,10 +3669,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C125" t="s">
         <v>247</v>
@@ -3666,10 +3680,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C126" t="s">
         <v>247</v>
@@ -3677,10 +3691,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C127" t="s">
         <v>247</v>
@@ -3688,10 +3702,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C128" t="s">
         <v>247</v>
@@ -3699,10 +3713,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C129" t="s">
         <v>247</v>
@@ -3710,10 +3724,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C130" t="s">
         <v>247</v>
@@ -3721,10 +3735,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
         <v>247</v>
@@ -3732,10 +3746,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
         <v>247</v>
@@ -3743,10 +3757,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
         <v>247</v>
@@ -3754,10 +3768,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C134" t="s">
         <v>247</v>
@@ -3765,10 +3779,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C135" t="s">
         <v>247</v>
@@ -3776,10 +3790,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C136" t="s">
         <v>247</v>
@@ -3787,10 +3801,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C137" t="s">
         <v>247</v>
@@ -3798,10 +3812,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="C138" t="s">
         <v>247</v>
@@ -3809,10 +3823,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="C139" t="s">
         <v>247</v>
@@ -3820,10 +3834,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C140" t="s">
         <v>247</v>
@@ -3831,10 +3845,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
         <v>247</v>
@@ -3842,10 +3856,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="C142" t="s">
         <v>247</v>
@@ -3853,10 +3867,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="C143" t="s">
         <v>247</v>
@@ -3864,10 +3878,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>211</v>
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C144" t="s">
         <v>247</v>
@@ -3875,10 +3889,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C145" t="s">
         <v>247</v>
@@ -3886,10 +3900,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C146" t="s">
         <v>247</v>
@@ -3897,10 +3911,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C147" t="s">
         <v>247</v>
@@ -3908,10 +3922,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
         <v>247</v>
@@ -3919,10 +3933,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
         <v>247</v>
@@ -3930,10 +3944,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
         <v>247</v>
@@ -3941,10 +3955,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
         <v>247</v>
@@ -3952,10 +3966,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C152" t="s">
         <v>247</v>
@@ -3963,10 +3977,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C153" t="s">
         <v>247</v>
@@ -3974,10 +3988,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C154" t="s">
         <v>247</v>
@@ -3985,10 +3999,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C155" t="s">
         <v>247</v>
@@ -3996,10 +4010,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C156" t="s">
         <v>247</v>
@@ -4007,10 +4021,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
         <v>247</v>
@@ -4018,10 +4032,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C158" t="s">
         <v>247</v>
@@ -4029,10 +4043,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="C159" t="s">
         <v>247</v>
@@ -4040,10 +4054,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="C160" t="s">
         <v>247</v>
@@ -4051,10 +4065,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C161" t="s">
         <v>247</v>
@@ -4062,10 +4076,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C162" t="s">
         <v>247</v>
@@ -4073,10 +4087,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C163" t="s">
         <v>247</v>
@@ -4084,10 +4098,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C164" t="s">
         <v>247</v>
@@ -4095,10 +4109,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C165" t="s">
         <v>247</v>
@@ -4106,10 +4120,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C166" t="s">
         <v>247</v>
@@ -4117,10 +4131,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C167" t="s">
         <v>247</v>
@@ -4128,10 +4142,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C168" t="s">
         <v>247</v>
@@ -4139,10 +4153,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C169" t="s">
         <v>247</v>
@@ -4150,10 +4164,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C170" t="s">
         <v>247</v>
@@ -4161,10 +4175,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="C171" t="s">
         <v>247</v>
@@ -4172,10 +4186,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>266</v>
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
       </c>
       <c r="C172" t="s">
         <v>247</v>
@@ -4183,10 +4197,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C173" t="s">
         <v>247</v>
@@ -4194,21 +4208,21 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="C174" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>274</v>
@@ -4216,10 +4230,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>274</v>
@@ -4227,10 +4241,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>274</v>
@@ -4238,10 +4252,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>274</v>
@@ -4249,10 +4263,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>274</v>
@@ -4260,10 +4274,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>274</v>
@@ -4271,10 +4285,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>274</v>
@@ -4282,36 +4296,32 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
+        <v>274</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>92</v>
@@ -4321,10 +4331,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>92</v>
@@ -4334,10 +4344,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>92</v>
@@ -4347,10 +4357,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>92</v>
@@ -4360,10 +4370,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>92</v>
@@ -4373,10 +4383,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>92</v>
@@ -4386,10 +4396,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>92</v>
@@ -4399,10 +4409,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>92</v>
@@ -4412,10 +4422,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>92</v>
@@ -4425,10 +4435,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>92</v>
@@ -4438,10 +4448,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>92</v>
@@ -4451,10 +4461,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>92</v>
@@ -4464,10 +4474,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>92</v>
@@ -4477,10 +4487,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>92</v>
@@ -4490,10 +4500,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>92</v>
@@ -4503,10 +4513,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>92</v>
@@ -4516,10 +4526,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>92</v>
@@ -4529,10 +4539,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>92</v>
@@ -4542,10 +4552,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>92</v>
@@ -4555,10 +4565,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>92</v>
@@ -4568,10 +4578,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>92</v>
@@ -4581,10 +4591,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>92</v>
@@ -4594,10 +4604,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>92</v>
@@ -4607,54 +4617,58 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>257</v>
+        <v>207</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>113</v>
@@ -4662,98 +4676,98 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>259</v>
+        <v>209</v>
+      </c>
+      <c r="B212" t="s">
+        <v>257</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C215" t="s">
-        <v>247</v>
+        <v>261</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>113</v>
+        <v>263</v>
+      </c>
+      <c r="C217" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>305</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>305</v>
@@ -4761,43 +4775,43 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>306</v>
+        <v>63</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>247</v>
@@ -4805,123 +4819,167 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>233</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>234</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>235</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>236</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/classification sites2.xlsx
+++ b/classification sites2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE70602-D2D9-7445-BD01-CDB50AF3A3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38863923-AB7A-2342-BA1E-D64644E7B1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45380" yWindow="3100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44800" yWindow="3100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$B$1:$C$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$B$1:$C$234</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="320">
   <si>
     <t>site</t>
   </si>
@@ -428,9 +428,6 @@
     <t>actahort</t>
   </si>
   <si>
-    <t>www.pnas.org</t>
-  </si>
-  <si>
     <t>pubs.aic.ca</t>
   </si>
   <si>
@@ -929,9 +926,6 @@
     <t>pdos.csail</t>
   </si>
   <si>
-    <t>psblab</t>
-  </si>
-  <si>
     <t>ebi.ac</t>
   </si>
   <si>
@@ -941,18 +935,12 @@
     <t>ipscell</t>
   </si>
   <si>
-    <t>htwberlin</t>
-  </si>
-  <si>
     <t>emfportal</t>
   </si>
   <si>
     <t>imaging.utk</t>
   </si>
   <si>
-    <t>ucsd</t>
-  </si>
-  <si>
     <t>ethz</t>
   </si>
   <si>
@@ -1005,13 +993,22 @@
   </si>
   <si>
     <t>gitlab</t>
+  </si>
+  <si>
+    <t>Pubmed</t>
+  </si>
+  <si>
+    <t>htw-berlin</t>
+  </si>
+  <si>
+    <t>pnas.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1028,6 +1025,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1050,15 +1055,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2291,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C998C1F-44ED-BA44-A7B0-DE8B3D2C2916}">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2305,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B1" t="s">
         <v>109</v>
@@ -2352,7 +2360,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
@@ -2363,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
@@ -2374,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
@@ -2385,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
@@ -2396,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -2407,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -2418,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2429,10 +2437,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2440,10 +2448,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2465,7 +2473,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2484,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
         <v>113</v>
@@ -2539,7 +2547,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
         <v>113</v>
@@ -2594,7 +2602,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
         <v>113</v>
@@ -2605,7 +2613,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
         <v>113</v>
@@ -2627,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
         <v>113</v>
@@ -2638,7 +2646,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
         <v>113</v>
@@ -2649,7 +2657,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s">
         <v>113</v>
@@ -2660,7 +2668,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
@@ -2671,7 +2679,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" t="s">
         <v>113</v>
@@ -2682,7 +2690,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
@@ -2693,7 +2701,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s">
         <v>113</v>
@@ -2704,7 +2712,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s">
         <v>113</v>
@@ -2784,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2795,7 +2803,7 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2803,10 +2811,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>318</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2814,10 +2822,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2825,10 +2833,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2836,1492 +2844,1498 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C50" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>318</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C53" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C54" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C55" t="s">
-        <v>318</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>167</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>187</v>
       </c>
       <c r="C104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="C117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
         <v>228</v>
       </c>
       <c r="C118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
         <v>195</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
         <v>199</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
         <v>202</v>
       </c>
       <c r="C130" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C134" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
         <v>233</v>
       </c>
       <c r="C138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="C139" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
         <v>209</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>54</v>
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>212</v>
       </c>
       <c r="C144" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
         <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C152" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C153" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C156" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="C157" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C159" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C161" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
         <v>220</v>
       </c>
       <c r="C162" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C163" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C164" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C165" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C166" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>245</v>
+        <v>171</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>246</v>
+        <v>172</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>31</v>
-      </c>
-      <c r="C172" t="s">
-        <v>247</v>
+        <v>173</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C173" t="s">
-        <v>247</v>
+        <v>272</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C174" t="s">
-        <v>247</v>
+        <v>275</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>264</v>
+        <v>142</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>142</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>54</v>
+        <v>183</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>92</v>
@@ -4331,10 +4345,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>92</v>
@@ -4344,10 +4358,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>92</v>
@@ -4357,10 +4371,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>92</v>
@@ -4370,10 +4384,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>92</v>
@@ -4383,10 +4397,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>92</v>
@@ -4396,10 +4410,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>92</v>
@@ -4409,10 +4423,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>92</v>
@@ -4422,10 +4436,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>92</v>
@@ -4435,10 +4449,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>92</v>
@@ -4448,10 +4462,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>92</v>
@@ -4461,10 +4475,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>92</v>
@@ -4474,10 +4488,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>92</v>
@@ -4487,10 +4501,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>92</v>
@@ -4500,10 +4514,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>92</v>
@@ -4513,10 +4527,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>92</v>
@@ -4526,10 +4540,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>92</v>
@@ -4539,10 +4553,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>92</v>
@@ -4552,10 +4566,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>92</v>
@@ -4565,10 +4579,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>92</v>
@@ -4578,411 +4592,375 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>202</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>157</v>
+        <v>205</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
+        <v>253</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>206</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>58</v>
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>256</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>209</v>
-      </c>
-      <c r="B212" t="s">
-        <v>257</v>
+        <v>212</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="C214" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C217" t="s">
-        <v>247</v>
+        <v>61</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>312</v>
+        <v>2</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>313</v>
+        <v>104</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>234</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>235</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>236</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B205" r:id="rId1" xr:uid="{3A8D318A-C5AB-164E-A25D-EDBA72B8E4F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
